--- a/data/Two_Node_Link/Power_ThermalGen.xlsx
+++ b/data/Two_Node_Link/Power_ThermalGen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Single Node Link\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suess\Desktop\Git\LEGO-Pyomo\data\Two_Node_Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4C1AA0-CFBA-4BB6-B208-5AA1B4D1A87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC4F66-7DF3-45C7-8600-00F5428B2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,10 +872,10 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="15">
         <v>41818.779699999999</v>
